--- a/doc/paw/友班API完成进度表-V1.5.xlsx
+++ b/doc/paw/友班API完成进度表-V1.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyiliang/Development/uband/uunodeapi/doc/paw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604262C6-D31C-0B4E-A95D-B7EF71CC7225}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C8B29E-0D27-5E4C-A58B-F5C698E6ED75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="32700" windowHeight="20540" xr2:uid="{F3024B52-C214-C54B-9291-7F18A16D6793}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="32660" windowHeight="20540" xr2:uid="{F3024B52-C214-C54B-9291-7F18A16D6793}"/>
   </bookViews>
   <sheets>
     <sheet name="001.“我”个人中心接口" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>编号</t>
   </si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>课程分享信息调用接口</t>
+  </si>
+  <si>
+    <t>优惠券单个查询接口</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
 </sst>
 </file>
@@ -666,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8733C9BB-EE79-B04F-BB61-4321ECFCC951}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1114,56 +1123,68 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>131</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F20" s="3">
         <v>43608</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>131</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F21" s="3">
         <v>43608</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>131</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="3">
+        <v>43608</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1191,6 +1212,15 @@
       <c r="E25" s="8"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/paw/友班API完成进度表-V1.5.xlsx
+++ b/doc/paw/友班API完成进度表-V1.5.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyiliang/Development/uband/uunodeapi/doc/paw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C8B29E-0D27-5E4C-A58B-F5C698E6ED75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325CA48E-6587-F949-BAAC-F1C5D14B98CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="32660" windowHeight="20540" xr2:uid="{F3024B52-C214-C54B-9291-7F18A16D6793}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="32660" windowHeight="20540" activeTab="1" xr2:uid="{F3024B52-C214-C54B-9291-7F18A16D6793}"/>
   </bookViews>
   <sheets>
     <sheet name="001.“我”个人中心接口" sheetId="1" r:id="rId1"/>
     <sheet name="002.课程主页接口" sheetId="2" r:id="rId2"/>
     <sheet name="003.课程学习接口" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8733C9BB-EE79-B04F-BB61-4321ECFCC951}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540C5CB9-13A8-C845-8B1C-94AD781CCC35}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/doc/paw/友班API完成进度表-V1.5.xlsx
+++ b/doc/paw/友班API完成进度表-V1.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyiliang/Development/uband/uunodeapi/doc/paw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912CBDB8-5EE7-494E-A5A1-0192B701E16A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB7CCFA-7CAB-864B-9AC0-481AE2CDAF17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="32660" windowHeight="20540" activeTab="1" xr2:uid="{F3024B52-C214-C54B-9291-7F18A16D6793}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="32660" windowHeight="20540" xr2:uid="{F3024B52-C214-C54B-9291-7F18A16D6793}"/>
   </bookViews>
   <sheets>
     <sheet name="001.“我”个人中心接口" sheetId="1" r:id="rId1"/>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8733C9BB-EE79-B04F-BB61-4321ECFCC951}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1300,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540C5CB9-13A8-C845-8B1C-94AD781CCC35}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
